--- a/results/Results_PCC.xlsx
+++ b/results/Results_PCC.xlsx
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5231.579138910535</v>
+        <v>5231.579170919113</v>
       </c>
       <c r="C2" t="n">
-        <v>5608.493032585369</v>
+        <v>5608.494317741896</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5227.189977678118</v>
+        <v>5227.18998025917</v>
       </c>
       <c r="C3" t="n">
-        <v>5598.945305466383</v>
+        <v>5598.945408379392</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5226.135969828591</v>
+        <v>5226.135994334955</v>
       </c>
       <c r="C4" t="n">
-        <v>5595.359105081908</v>
+        <v>5595.360088523847</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5218.753273867276</v>
+        <v>5218.753282791317</v>
       </c>
       <c r="C5" t="n">
-        <v>5584.400808277275</v>
+        <v>5584.401167647237</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5213.326800670806</v>
+        <v>5213.326815717922</v>
       </c>
       <c r="C6" t="n">
-        <v>5586.69235210967</v>
+        <v>5586.692958707069</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5181.597294084396</v>
+        <v>5181.597320037057</v>
       </c>
       <c r="C7" t="n">
-        <v>5526.516825403864</v>
+        <v>5526.517831907375</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5148.4247736549</v>
+        <v>5148.424771118935</v>
       </c>
       <c r="C8" t="n">
-        <v>5489.186817351231</v>
+        <v>5489.186722942089</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5117.056806210277</v>
+        <v>5117.056795487993</v>
       </c>
       <c r="C9" t="n">
-        <v>5462.248976081419</v>
+        <v>5462.248588575165</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>4959.100012244768</v>
+        <v>4959.100050252483</v>
       </c>
       <c r="C10" t="n">
-        <v>5310.347818996433</v>
+        <v>5310.349150550828</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4897.697374593299</v>
+        <v>4897.697391440604</v>
       </c>
       <c r="C11" t="n">
-        <v>5256.033546723897</v>
+        <v>5256.034139637408</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>4877.112804493957</v>
+        <v>4877.112749153162</v>
       </c>
       <c r="C12" t="n">
-        <v>5236.265538854203</v>
+        <v>5236.263592709773</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>4870.357163052162</v>
+        <v>4870.357160500368</v>
       </c>
       <c r="C13" t="n">
-        <v>5243.17107989807</v>
+        <v>5243.170989172474</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>4854.419342461023</v>
+        <v>4854.419310366724</v>
       </c>
       <c r="C14" t="n">
-        <v>5234.245101451596</v>
+        <v>5234.243923314793</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4843.04581887981</v>
+        <v>4843.045826983373</v>
       </c>
       <c r="C15" t="n">
-        <v>5212.387037413829</v>
+        <v>5212.387337925913</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>4843.853494942965</v>
+        <v>4843.853480301618</v>
       </c>
       <c r="C16" t="n">
-        <v>5214.069479794368</v>
+        <v>5214.068932723902</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>4844.941379982344</v>
+        <v>4844.941348929079</v>
       </c>
       <c r="C17" t="n">
-        <v>5219.727583901254</v>
+        <v>5219.726437521515</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>4825.520387240344</v>
+        <v>4825.520421821459</v>
       </c>
       <c r="C18" t="n">
-        <v>5178.997809813973</v>
+        <v>5178.99899342375</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4803.23682936252</v>
+        <v>4803.236894393954</v>
       </c>
       <c r="C19" t="n">
-        <v>5174.886505363955</v>
+        <v>5174.888737863336</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>4802.579018415116</v>
+        <v>4802.579039721439</v>
       </c>
       <c r="C20" t="n">
-        <v>5172.125709638874</v>
+        <v>5172.126452361473</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>4794.229985192979</v>
+        <v>4794.230050057236</v>
       </c>
       <c r="C21" t="n">
-        <v>5144.743497782408</v>
+        <v>5144.745724301809</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>4785.892589600864</v>
+        <v>4785.892576676623</v>
       </c>
       <c r="C22" t="n">
-        <v>5147.565104938695</v>
+        <v>5147.564658529823</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4784.476065030446</v>
+        <v>4784.476059949327</v>
       </c>
       <c r="C23" t="n">
-        <v>5147.804914130904</v>
+        <v>5147.80473789105</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>4784.146739877186</v>
+        <v>4784.146700098136</v>
       </c>
       <c r="C24" t="n">
-        <v>5144.72400717964</v>
+        <v>5144.722616980358</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>4763.615919999306</v>
+        <v>4763.615903825849</v>
       </c>
       <c r="C25" t="n">
-        <v>5125.159499934354</v>
+        <v>5125.158938291903</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>4763.603554032457</v>
+        <v>4763.603567251298</v>
       </c>
       <c r="C26" t="n">
-        <v>5124.649885264145</v>
+        <v>5124.650345156093</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>4763.603737356411</v>
+        <v>4763.603758122062</v>
       </c>
       <c r="C27" t="n">
-        <v>5124.642835329506</v>
+        <v>5124.643557621705</v>
       </c>
     </row>
   </sheetData>

--- a/results/Results_PCC.xlsx
+++ b/results/Results_PCC.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Train MSE</t>
+  </si>
+  <si>
+    <t>Test MSE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +60,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,318 +376,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Train MSE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Test MSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>5231.579170919113</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5608.494317741896</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5231.579123755131</v>
+      </c>
+      <c r="C2">
+        <v>5608.492422204795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>5227.18998025917</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5598.945408379392</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3">
+        <v>5227.189993683879</v>
+      </c>
+      <c r="C3">
+        <v>5598.945943096267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>5226.135994334955</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5595.360088523847</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>5226.135976422591</v>
+      </c>
+      <c r="C4">
+        <v>5595.359370010978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>5218.753282791317</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5584.401167647237</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>5218.753260532104</v>
+      </c>
+      <c r="C5">
+        <v>5584.400270490277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>5213.326815717922</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5586.692958707069</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6">
+        <v>5213.326781160439</v>
+      </c>
+      <c r="C6">
+        <v>5586.691563795982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>5181.597320037057</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5526.517831907375</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7">
+        <v>5181.59729748054</v>
+      </c>
+      <c r="C7">
+        <v>5526.516957308943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>5148.424771118935</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5489.186722942089</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8">
+        <v>5148.424740314728</v>
+      </c>
+      <c r="C8">
+        <v>5489.185573658339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>5117.056795487993</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5462.248588575165</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9">
+        <v>5117.05678783351</v>
+      </c>
+      <c r="C9">
+        <v>5462.248311607539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>4959.100050252483</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5310.349150550828</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10">
+        <v>4959.100023136878</v>
+      </c>
+      <c r="C10">
+        <v>5310.348201268715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>4897.697391440604</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5256.034139637408</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11">
+        <v>4897.697372004519</v>
+      </c>
+      <c r="C11">
+        <v>5256.033455500101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>4877.112749153162</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5236.263592709773</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12">
+        <v>4877.112749880122</v>
+      </c>
+      <c r="C12">
+        <v>5236.263618367077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>4870.357160500368</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5243.170989172474</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B13">
+        <v>4870.357130708333</v>
+      </c>
+      <c r="C13">
+        <v>5243.169927724817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>4854.419310366724</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5234.243923314793</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="B14">
+        <v>4854.419303448164</v>
+      </c>
+      <c r="C14">
+        <v>5234.243668694008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>4843.045826983373</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5212.387337925913</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="B15">
+        <v>4843.045810608893</v>
+      </c>
+      <c r="C15">
+        <v>5212.386730368999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>4843.853480301618</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5214.068932723902</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="B16">
+        <v>4843.853452171652</v>
+      </c>
+      <c r="C16">
+        <v>5214.067878714634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>4844.941348929079</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5219.726437521515</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B17">
+        <v>4844.941357501872</v>
+      </c>
+      <c r="C17">
+        <v>5219.726754464782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>4825.520421821459</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5178.99899342375</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="B18">
+        <v>4825.520428302928</v>
+      </c>
+      <c r="C18">
+        <v>5178.999214671593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>4803.236894393954</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5174.888737863336</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="B19">
+        <v>4803.236853172294</v>
+      </c>
+      <c r="C19">
+        <v>5174.88732495356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>4802.579039721439</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5172.126452361473</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="B20">
+        <v>4802.5790009877</v>
+      </c>
+      <c r="C20">
+        <v>5172.125100593784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>4794.230050057236</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5144.745724301809</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="B21">
+        <v>4794.230056424228</v>
+      </c>
+      <c r="C21">
+        <v>5144.745941840471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>4785.892576676623</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5147.564658529823</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="B22">
+        <v>4785.892563642438</v>
+      </c>
+      <c r="C22">
+        <v>5147.56420756312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>4784.476059949327</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5147.80473789105</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="B23">
+        <v>4784.47607205068</v>
+      </c>
+      <c r="C23">
+        <v>5147.805157438344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>4784.146700098136</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5144.722616980358</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="B24">
+        <v>4784.146714923604</v>
+      </c>
+      <c r="C24">
+        <v>5144.723135948549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
-        <v>4763.615903825849</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5125.158938291903</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="B25">
+        <v>4763.615928353</v>
+      </c>
+      <c r="C25">
+        <v>5125.159789564397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
-        <v>4763.603567251298</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5124.650345156093</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="B26">
+        <v>4763.603542320079</v>
+      </c>
+      <c r="C26">
+        <v>5124.649477118936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
-        <v>4763.603758122062</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5124.643557621705</v>
+      <c r="B27">
+        <v>4763.603707630336</v>
+      </c>
+      <c r="C27">
+        <v>5124.641797940883</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>